--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_st05.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_st05.xlsx
@@ -1168,7 +1168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Herman"]   I still remember that day; the weather was a bit warm, and the sunset was splendid. She turned to me here and said, "If only we could stay here forever."
+    <t xml:space="preserve">[name="Herman"]   I still remember that day; the weather was a bit warm, and the sunset was splendid. She turned to me here and said, 'If only we could stay here forever.'
 </t>
   </si>
   <si>
